--- a/task/GLチームタスク管理.xlsx
+++ b/task/GLチームタスク管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10434" windowHeight="5598"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8994"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="53">
   <si>
     <t>期日</t>
     <rPh sb="0" eb="2">
@@ -166,13 +166,6 @@
     <t>モデリング</t>
   </si>
   <si>
-    <t>スタートの演出</t>
-    <rPh sb="5" eb="7">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>β以降にやります</t>
     <rPh sb="1" eb="3">
       <t>イコウ</t>
@@ -305,6 +298,148 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表会</t>
+    <rPh sb="0" eb="3">
+      <t>ハッピョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミュニティ</t>
+  </si>
+  <si>
+    <t>ゲーム発表会。</t>
+    <rPh sb="3" eb="6">
+      <t>ハッピョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター版。以降はソースを触らないようにしたい……</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完パケ</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完パケ。マスター版。</t>
+    <rPh sb="0" eb="1">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト期間</t>
+    <rPh sb="3" eb="5">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグテスト。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始演出</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同期ずれ阻止のために行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果画面表示。ランキング。</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイム演出</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了間際に大きくなるようにする</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウマギワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了演出</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了演出。プレイヤーが動かないようにする。</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -730,7 +865,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.3"/>
@@ -765,19 +900,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3">
         <v>42746</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -788,7 +923,7 @@
         <v>42751</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -802,7 +937,7 @@
         <v>42751</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -810,7 +945,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3">
         <v>42751</v>
@@ -829,6 +964,9 @@
       <c r="B6" s="3">
         <v>42751</v>
       </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
@@ -838,7 +976,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>42751</v>
@@ -850,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,7 +1004,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3">
         <v>42753</v>
@@ -878,35 +1016,35 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3">
         <v>42753</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>42753</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,7 +1055,7 @@
         <v>42758</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -942,7 +1080,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>42758</v>
@@ -954,24 +1092,26 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42779</v>
+      </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
@@ -981,61 +1121,138 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3">
+        <v>42793</v>
+      </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3">
+        <v>42788</v>
+      </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="3">
+        <v>42786</v>
+      </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="3">
+        <v>42786</v>
+      </c>
       <c r="C21" t="s">
         <v>2</v>
       </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3"/>
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3">
+        <v>42779</v>
+      </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3"/>
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="3">
+        <v>42765</v>
+      </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3"/>
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="3">
+        <v>42767</v>
+      </c>
       <c r="C24" t="s">
         <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
